--- a/xls/LithicDebitage.xlsx
+++ b/xls/LithicDebitage.xlsx
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Debitage!$A$1:$Q$461</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Debitage!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -368,24 +368,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -398,7 +380,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5290,7 +5290,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5311,37 +5311,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -5353,34 +5353,34 @@
       <c r="N1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="10"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="10"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
@@ -29174,6 +29174,11 @@
     <sortCondition ref="A3:A461"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -29186,11 +29191,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
